--- a/Présentation/RACI.xlsx
+++ b/Présentation/RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/benjamin_faretie_etu_unice_fr/Documents/GitHub/SAE-302-appli/Présentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{E07CBC10-9DC3-47BF-B38B-F43D7D1FB826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A12A6F2C-8659-8343-A40F-E1DC28C838DB}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{E07CBC10-9DC3-47BF-B38B-F43D7D1FB826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4E9AEF-5F27-974E-B09F-902E606E8E1D}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="500" windowWidth="26720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,19 +187,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
+      <i/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="18"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri (Corps)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -432,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -476,26 +485,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +794,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,27 +805,27 @@
     <col min="4" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -824,9 +834,9 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -835,39 +845,39 @@
       <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -884,7 +894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -899,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -914,7 +924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -929,7 +939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -944,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -961,7 +971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -976,7 +986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>31</v>
@@ -991,7 +1001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1006,7 +1016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -1021,7 +1031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -1053,7 +1063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -1068,7 +1078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -1083,7 +1093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1098,7 +1108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -1115,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1130,7 +1140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1145,7 +1155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1160,7 +1170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1175,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1190,7 +1200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
         <v>40</v>

--- a/Présentation/RACI.xlsx
+++ b/Présentation/RACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/benjamin_faretie_etu_unice_fr/Documents/GitHub/SAE-302-appli/Présentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerok\Documents\GitHub\SAE-302-appli\Présentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{E07CBC10-9DC3-47BF-B38B-F43D7D1FB826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4E9AEF-5F27-974E-B09F-902E606E8E1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739879B-7F36-437C-AC86-5A4726D346C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="500" windowWidth="26720" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>Titre des tâches</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Influx dB (Automatisation, conversion)</t>
   </si>
   <si>
-    <t>Mis à jour le 27 février 2023</t>
-  </si>
-  <si>
     <t>R / A</t>
   </si>
   <si>
@@ -162,6 +159,27 @@
   </si>
   <si>
     <t>R / A / C / I</t>
+  </si>
+  <si>
+    <t>Automatisation</t>
+  </si>
+  <si>
+    <t>Mis à jour le 02 mars 2023</t>
+  </si>
+  <si>
+    <t>Ajout des programmes Java</t>
+  </si>
+  <si>
+    <t>R  / C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I / C </t>
+  </si>
+  <si>
+    <t>R / C / I</t>
+  </si>
+  <si>
+    <t>Mise en place de script (écriture BDD, récupération fichier)</t>
   </si>
 </sst>
 </file>
@@ -522,10 +540,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,24 +805,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="54.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="19" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>15</v>
@@ -816,51 +830,51 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -877,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -885,76 +899,76 @@
         <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -962,76 +976,76 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1039,180 +1053,225 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>4</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Présentation/RACI.xlsx
+++ b/Présentation/RACI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nerok\Documents\GitHub\SAE-302-appli\Présentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739879B-7F36-437C-AC86-5A4726D346C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -173,13 +173,13 @@
     <t>R  / C</t>
   </si>
   <si>
-    <t xml:space="preserve">I / C </t>
-  </si>
-  <si>
     <t>R / C / I</t>
   </si>
   <si>
     <t>Mise en place de script (écriture BDD, récupération fichier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C / I </t>
   </si>
 </sst>
 </file>
@@ -808,18 +808,18 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="19" t="s">
         <v>42</v>
@@ -830,7 +830,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -905,10 +905,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -920,10 +920,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -932,13 +932,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -950,10 +950,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -965,10 +965,10 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -982,10 +982,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -997,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1012,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -1027,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -1042,10 +1042,10 @@
         <v>23</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -1059,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -1074,10 +1074,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -1089,10 +1089,10 @@
         <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -1104,13 +1104,13 @@
         <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>23</v>
@@ -1119,10 +1119,10 @@
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -1134,10 +1134,10 @@
         <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>41</v>
@@ -1149,10 +1149,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1164,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -1181,10 +1181,10 @@
         <v>25</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>34</v>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -1211,10 +1211,10 @@
         <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
@@ -1226,10 +1226,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
@@ -1241,10 +1241,10 @@
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
@@ -1259,7 +1259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
         <v>39</v>

--- a/Présentation/RACI.xlsx
+++ b/Présentation/RACI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aurel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/matthieu_perre_etu_unice_fr/Documents/GitHub/SAE-302-appli/Présentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB80837-8987-4983-940E-F605C7604F9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>Titre des tâches</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t xml:space="preserve">C / I </t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -805,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1167,42 +1170,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>25</v>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>33</v>
@@ -1211,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>33</v>
@@ -1232,7 +1235,7 @@
     <row r="29" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>33</v>
@@ -1247,30 +1250,45 @@
     <row r="30" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Présentation/RACI.xlsx
+++ b/Présentation/RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/matthieu_perre_etu_unice_fr/Documents/GitHub/SAE-302-appli/Présentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB80837-8987-4983-940E-F605C7604F9F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA7F879-096E-4B62-A04F-D48CD5CB69C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,18 +92,12 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Données (Récupération, gestion, transmission)</t>
-  </si>
-  <si>
     <t>Planification du projet (Introduction)</t>
   </si>
   <si>
     <t>Application (Dynamique, Android Studio)</t>
   </si>
   <si>
-    <t>Influx dB (Automatisation, conversion)</t>
-  </si>
-  <si>
     <t>R / A</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Influx dB (Automatisation, Stockage)</t>
+  </si>
+  <si>
+    <t>Données (Récupération, Gestion, Transmission)</t>
   </si>
 </sst>
 </file>
@@ -543,6 +543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,7 +815,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +829,7 @@
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>15</v>
@@ -838,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
@@ -849,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
@@ -860,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -871,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
@@ -899,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -932,13 +936,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,13 +966,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,76 +980,76 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,16 +1057,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,43 +1090,43 @@
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,28 +1135,28 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,28 +1165,28 @@
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,106 +1194,106 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Présentation/RACI.xlsx
+++ b/Présentation/RACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/matthieu_perre_etu_unice_fr/Documents/GitHub/SAE-302-appli/Présentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/benjamin_faretie_etu_unice_fr/Documents/GitHub/SAE-302-appli/Présentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA7F879-096E-4B62-A04F-D48CD5CB69C4}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{6D525EB7-12DF-4E25-8FB0-E630FAC4408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56BD738-1AC2-A146-9BAA-143C2452189F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>Titre des tâches</t>
   </si>
@@ -104,9 +104,6 @@
     <t>C / I</t>
   </si>
   <si>
-    <t>Récupération des doonées Écowatt</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -183,6 +180,12 @@
   </si>
   <si>
     <t>Données (Récupération, Gestion, Transmission)</t>
+  </si>
+  <si>
+    <t>Récupération des doonées Écowatt V1</t>
+  </si>
+  <si>
+    <t>Récupération des données Écowatt V2</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,24 +811,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>15</v>
@@ -837,51 +836,51 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -898,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -906,81 +905,81 @@
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>20</v>
@@ -989,13 +988,13 @@
         <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
@@ -1007,10 +1006,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>20</v>
@@ -1019,13 +1018,13 @@
         <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
@@ -1034,13 +1033,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
@@ -1049,45 +1048,45 @@
         <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>21</v>
@@ -1099,10 +1098,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
@@ -1114,10 +1113,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>21</v>
@@ -1129,10 +1128,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>21</v>
@@ -1144,10 +1143,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>21</v>
@@ -1159,10 +1158,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
@@ -1174,126 +1173,141 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
